--- a/tests/temperature.xlsx
+++ b/tests/temperature.xlsx
@@ -19,7 +19,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>celcius</t>
+    <t>celsius</t>
   </si>
   <si>
     <t>fahrenheit</t>
